--- a/TestExcelEntityMapper/Risorse/input_XLSX_.xlsx
+++ b/TestExcelEntityMapper/Risorse/input_XLSX_.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Second" sheetId="1" r:id="rId1"/>
     <sheet name="Persons" sheetId="2" r:id="rId2"/>
+    <sheet name="Persons2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -169,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -184,6 +185,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +489,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+    <sheetView showOutlineSymbols="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -551,10 +558,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="B6:H10"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -566,106 +573,106 @@
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D7">
         <v>1979</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D8">
         <v>1980</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="D9">
         <v>1990</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H9" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -678,4 +685,31 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B6:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:8">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestExcelEntityMapper/Risorse/input_XLSX_.xlsx
+++ b/TestExcelEntityMapper/Risorse/input_XLSX_.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Second" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Mario</t>
   </si>
@@ -30,9 +30,6 @@
     <t>DRZ895AA</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>Silvio</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>DRF999BB</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>Elis</t>
@@ -504,39 +498,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>15000000000000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <v>50</v>
@@ -560,8 +554,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B6:H10"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -570,30 +564,31 @@
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -607,7 +602,7 @@
         <v>1979</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -615,51 +610,51 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
+      <c r="H7" s="1">
+        <v>2005</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
       </c>
       <c r="D8">
         <v>1980</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
+      <c r="H8" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1990</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1">
         <v>2008</v>
@@ -667,13 +662,13 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B6:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>

--- a/TestExcelEntityMapper/Risorse/input_XLSX_.xlsx
+++ b/TestExcelEntityMapper/Risorse/input_XLSX_.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705"/>
   </bookViews>
   <sheets>
-    <sheet name="Second" sheetId="1" r:id="rId1"/>
-    <sheet name="Persons" sheetId="2" r:id="rId2"/>
-    <sheet name="Persons2" sheetId="3" r:id="rId3"/>
+    <sheet name="Persons" sheetId="2" r:id="rId1"/>
+    <sheet name="Persons2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Mario</t>
   </si>
@@ -79,27 +78,6 @@
   </si>
   <si>
     <t>OwnCar.BuildYear</t>
-  </si>
-  <si>
-    <t>Pippo</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>Pluto</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>12/12/2012</t>
   </si>
   <si>
     <t>09/02/1950</t>
@@ -164,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -175,8 +153,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -480,77 +456,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>15000000000000</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-  </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B6:H10"/>
   <sheetViews>
@@ -601,8 +506,8 @@
       <c r="D7">
         <v>1979</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -624,8 +529,8 @@
       <c r="D8">
         <v>1980</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -647,8 +552,8 @@
       <c r="D9">
         <v>1990</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -667,8 +572,8 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B6:H6"/>
   <sheetViews>
@@ -696,13 +601,13 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
